--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(L)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(L).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(L)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(L).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lab
-Laburnum - fam. Fabaceae
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Laburnum - fam. Fabaceae
 Laburnum alpinum
-Laburnum anagyroides - Cytise faux ébénier
-Lac
-Laccospadix - fam. Arécacées - (palmier)
+Laburnum anagyroides - Cytise faux ébénier</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lac</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Laccospadix - fam. Arécacées - (palmier)
 Laccospadix australasica
 Lactuca - fam. Astéracées (légume)
 Lactuca canadensis - Laitue du Canada
@@ -530,18 +581,120 @@
 Lactuca sibirica
 Lactuca tatarica
 Lactuca tatarica pulchella
-Lactuca virosa
-Lae
-Laeliocattleya - fam. Orchidacées (orchidée)
-Lag
-Lagarosiphon - fam. Hydrocharitacées
+Lactuca virosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Laeliocattleya - fam. Orchidacées (orchidée)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lagarosiphon - fam. Hydrocharitacées
 Lagarosiphon major
 Lagenaria - fam. Cucurbitacées (légume)
 Lagenaria vulgaris ou Tricosanthes anguina - Concombre longe
 Lagerstroemia - fam. Lythracées (arbuste)
-Lagerstroemia indica - Lilas des Indes
-Lam
-Lamium - fam. des Lamiaceae
+Lagerstroemia indica - Lilas des Indes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lam</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lamium - fam. des Lamiaceae
 Lamium album L. - Lamier blanc ou Ortie blanche
 Lamium amplexicaule L. - Lamier amplexicaule
 Lamium maculatum (L.) L. - Lamier tacheté, Lamier rouge ou Ortie rouge
@@ -549,13 +702,81 @@
 Lamium purpureum L.
 Lamium purpureum var. purpureum - Lamier pourpre
 Lampsana - fam. Asteraceae
-Lampsana comunis - Lampsane commune
-Lan
-Lantana - fam. Verbénacées (plante tropicale)
+Lampsana comunis - Lampsane commune</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lantana - fam. Verbénacées (plante tropicale)
 Lantana camara - Lantana
-Lantana sellowiana - Lantana
-Lar
-Larix - fam. Pinaceae (voir aussi mélèze)
+Lantana sellowiana - Lantana</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lar</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Larix - fam. Pinaceae (voir aussi mélèze)
 Larix decidua - Mélèze d'Europe
 Larix decidua pendula
 Larix decidua pulii
@@ -565,16 +786,84 @@
 Larix laricina - Mélèze laricin
 Larix leptolepis -
 Larix occidentalis - Mélèze occidental
-Larix sibirica - Mélèze de Sibérie
-Las
- Laser - fam. Apiacées
+Larix sibirica - Mélèze de Sibérie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Las</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laser - fam. Apiacées
 Laser trilobum - Siler à trois lobes
 Laserpitium - fam. Apiacée
 Laserpitium latifolium
 Laserpitium prutenicum
-laserpitium siler
-Lat
-Latania ou Cocothrinax - fam. Arécacées (palmier)
+laserpitium siler</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lat</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Latania ou Cocothrinax - fam. Arécacées (palmier)
 Latania lontaroides - Latanier
 Lathraea - fam. Scrophulariaceae
 Lathraea clandestina L.
@@ -598,13 +887,81 @@
 Lathyrus tuberosus - Gesse tubéreuse
 Lathyrus venosus
 Lathyrus venosus 'Intonsus' 
-Lathyrus vernus - Gesse printanière
-Lau
-Laurentus - (plante épiphyte)
+Lathyrus vernus - Gesse printanière</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lau</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Laurentus - (plante épiphyte)
 Laurus - fam. Lauracées (arbre)
-Laurus nobilis - Laurier
-Lav
-Lavandula - fam. Lamiaceae
+Laurus nobilis - Laurier</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lavandula - fam. Lamiaceae
 Lavandula angustifolia - Lavande vraie
 Lavandula latifolia - Lavande aspic
 Lavandula stoechas - Lavande papillon
@@ -616,70 +973,347 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Le</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lec
-Lecointea
-Led
-Ledum fam. Éricacées (plante de tourbière)
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lec</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lecointea</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Led</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ledum fam. Éricacées (plante de tourbière)
 Ledum groenlandicum - Lédon du Groeland ou « Thé du Labrador »
-Ledum palustris - Lédon des marais
-Lee
-Leersia
+Ledum palustris - Lédon des marais</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Leersia
 Leersia oryzoides - Leersia faux-riz
-Leersia virginica - Leersia de Virginie
-Leg
-Legousia fam. Campanulacées
+Leersia virginica - Leersia de Virginie</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Leg</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Legousia fam. Campanulacées
 Legousia hybrida
-Legousia speculum-veneris
-Lem
-Lembotropis fam. Fabacées
+Legousia speculum-veneris</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lembotropis fam. Fabacées
 Lembotropis nigricans
 Lemna- fam. Lemnacées
 Lemna gibba
 Lemna minor
-Lemna trisulca
-Len
-Lens - fam. Fabaceae
-Lens culinaris - Lentille cultivée
-Leo
-Leondoton - fam. Astéracées
+Lemna trisulca</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Len</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lens - fam. Fabaceae
+Lens culinaris - Lentille cultivée</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Leondoton - fam. Astéracées
 Leondoton autumnalis
 Leontopodium - fam. Astéracées
 Leontopodium alpinum - Edelweiss ou « Étoile des neiges »
 Leonurus - fam. Lamiacées
-Leonurus cardiaca - Agripaume
-Lep
-Lepidium - fam. Brassicacées (légume)
+Leonurus cardiaca - Agripaume</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lep</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Lepidium - fam. Brassicacées (légume)
 Lepidium sativum - Cresson alénois
 Leptospermum
-Leptospermum scoparium
-Leu
-Leucaena - fam. Mimosacée (arbre)
+Leptospermum scoparium</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Leu</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Leucaena - fam. Mimosacée (arbre)
 Leucanthemopsis - fam. Astéracées
 Leucanthemopsis alpinum - Marguerite des Alpes
 Leucanthemopsis flaveola
@@ -706,12 +1340,80 @@
 Leucothoe
 Leucothoe fontanesiana
 Leuzea
-Leuzea conifera - Leuzée conifère
-Lev
-Levisticum - fam. Apiacées
-Levisticum officinale - Ache de montagne ou livèche
-Ley
-Leycesteria
+Leuzea conifera - Leuzée conifère</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Levisticum - fam. Apiacées
+Levisticum officinale - Ache de montagne ou livèche</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ley</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leycesteria
 Leycesteria formosa
 Leymus
 Leymus arenarius
@@ -719,40 +1421,113 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Li</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lia
-Liatris - fam. Composées
-Liatris spicata - Liatris spicata
-Lic
-Licuala - fam. Arécacées (palmier)
-Licuala grandis
-Lig
-Ligularia
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lia</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Liatris - fam. Composées
+Liatris spicata - Liatris spicata</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lic</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Licuala - fam. Arécacées (palmier)
+Licuala grandis</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Lig</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Ligularia
 Ligularia sibirica - Ligulaire de Sibérie
 Ligusticum
 Ligusticum scothicum
@@ -770,9 +1545,43 @@
 Ligustrum vulgare - Troène commun
 Ligustrum	vulgare atrovirens
 Ligustrum	vulgare	lodense
-Ligustrum vicaryi
-Lil
-Lilium - fam. Liliacées
+Ligustrum vicaryi</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lil</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Lilium - fam. Liliacées
 Lilium auratum
 Lilium canadense - Lys du Canada
 Lilium candidum - Lys blanc ou « Lis de la Madone », « Lis de la Saint-Jean »
@@ -785,9 +1594,43 @@
 Lilium speciosum roseum
 Lilium tigrinum - Lys tigre
 Lilium tigrinum splendens - Lys tigre à grandes fleurs
-Lilium tigrinum flore-pleno - Lys tigre à fleurs doubles
-Lim
-Limodorum - fam. Orchidaceae (orchidée)
+Lilium tigrinum flore-pleno - Lys tigre à fleurs doubles</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Lim</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Limodorum - fam. Orchidaceae (orchidée)
 Limodorum abortivum - Limodore à feuilles avortées
 Limodorum trabutianum
 Limonium - fam. Plumbaginaceae
@@ -799,9 +1642,43 @@
 Limonium suworowii - Statice de Suworowii
 Limonium tartaricum - Statice de Tartarie
 Limonium tremolsii - Statice de Trémols
-Limonium vulgare - Lavande de mer
-Lin
-Linanthus - fam. Polémoniacées
+Limonium vulgare - Lavande de mer</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lin</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Linanthus - fam. Polémoniacées
 Linanthus grandiflorus - Leptosiphon hybride
 Linaria - fam. Scrophulariaceae (plante rustique)
 Linaria alpina - Linaire des Alpes
@@ -826,88 +1703,399 @@
 Linum narbonense - Lin de Narbonne
 Linum perenne - Lin vivace
 Linum usitatissimum - Lin cultivé
-Linum viscosum - Lin visqueux
-Lip
-Liparis - fam. Orchidacées (orchidée)
+Linum viscosum - Lin visqueux</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lip</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Liparis - fam. Orchidacées (orchidée)
 Liparis loeselii - Liparis de Loesel
 Lipocarpha
 Lipocarpha micrantha
 Lippia
 Lippia citriodora
-Lippia repens
-Liq
-Liquidambar - fam. Hamamélidacées (arbre)
-Liquidambar styraciflua - Liquidambar ou « Copalme d'amérique »
-Lir
-Liriodendron - fam. Magnoliaceae
+Lippia repens</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Liq</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Liquidambar - fam. Hamamélidacées (arbre)
+Liquidambar styraciflua - Liquidambar ou « Copalme d'amérique »</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Lir</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Liriodendron - fam. Magnoliaceae
 Liriodendron chinense - Tulipier de Chine
-Liriodendron tulipifera - Tulipier de Virginie
-Lis
-Listera - fam. Orchidacées (orchidée)
+Liriodendron tulipifera - Tulipier de Virginie</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Lis</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Listera - fam. Orchidacées (orchidée)
 Listera auriculata
 Listera australis
 Listera convallarioides
 Listera cordata
-Listera ovata - Listère à feuilles ovales
-Lit
-Litchi - fam. Sapindacées (arbuste fruitier)
+Listera ovata - Listère à feuilles ovales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Litchi - fam. Sapindacées (arbuste fruitier)
 Litchi chinensis - Litchee
 Lithospermum - fam. Borraginacées
 Lithospermum - Grémil des Pouilles
-Lithospermum arvense - Grémil des champs
-Liv
-Livistona - fam. Arécacées (palmier)
+Lithospermum arvense - Grémil des champs</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Liv</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Livistona - fam. Arécacées (palmier)
 Livistona australis
 Livistona chinensis
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Lo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lob
-Lobelia - fam. Campanulacées
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Lob</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Lobelia - fam. Campanulacées
 Lobelia cardinalis - Lobélie écarlate ou « Lobélie cardinal »
 Lobelia erinus
 Lobelia siphilitica - Lobélie bleu
 Lobularia - Brassicacées
-Lobularia maritima - Alysse odorant
-Loi
-Loiseleuria - fam. Éricacées
+Lobularia maritima - Alysse odorant</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Lo</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Loi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Loiseleuria - fam. Éricacées
 Loiseleuria procumbens - Azalée des Alpes ou « Loiseleure couchée »
 Lolium - fam. Poacées (herbe)
 Lolium multiflorum - Ivraie multiflore ou « Ray-grass »
 Lolium perenne - Ivraie vivace
-Lolium temulentum - Ivraie énivrante
-Lom
-Lomatogonium
-Lomatogonium rotatum
-Lon
-Lonicera - fam. Caprifoliacées (plante grimpante)
+Lolium temulentum - Ivraie énivrante</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Lo</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Lom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Lomatogonium
+Lomatogonium rotatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Lo</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Lon</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lonicera - fam. Caprifoliacées (plante grimpante)
 Lonicera caerulea
 Lonicera canadensis - Chèvrefeuille du Canada
 Lonicera caprifolium - Chevrefeuille des jardins
@@ -924,9 +2112,43 @@
 Lonicera tartarica - Chèvrefeuille de Tartarie
 Lonicera villosa
 Lonicera xylosteoïdes
-Lonicera xylosteum - Chèvrefeuille des haies
-Lot
-Lotus - fam. Fabacées
+Lonicera xylosteum - Chèvrefeuille des haies</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Lo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lotus - fam. Fabacées
 Lotus aduncus
 Lotus aegaeus
 Lotus angustissimus - Lotier très étroit
@@ -961,89 +2183,269 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Lu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lue
-Luetzelburgia
-Luf
-Luffa - fam. Cucurbitacées (plante grimpante)
-Luffa acutangula ou Luffa cylindrica - Éponge végétale
-Lun
-Lunaria - fam. Crucifères
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Lue</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Luetzelburgia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Lu</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Luf</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Luffa - fam. Cucurbitacées (plante grimpante)
+Luffa acutangula ou Luffa cylindrica - Éponge végétale</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Lu</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Lun</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Lunaria - fam. Crucifères
 Lunaria annua ou Lunaria biennis - Monnaie-du-pape
 Lunaria rediviva - Lunaire vivace
-Lunaria telekiana
-Lup
-Lupinus - fam. Fabacées (plante rustique)
+Lunaria telekiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Lu</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Lup</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Lupinus - fam. Fabacées (plante rustique)
 Lupinus mutabilis - Lupin changeant
 Lupinus Hartwegii - Lupin de Hartweg
 Lupinus hirsutus - Lupinus grand
 Lupinus luteus - Lupin jaune souffre
 Lupinus perennis - Lupin bleu
-Lupinus polyphillus - Lupin des prairies ou « lupin polyphille »
-Lur
-Luronium
-Luronium natans - Flûteau nageant
-Luz
-Luzula - fam. Joncacées
+Lupinus polyphillus - Lupin des prairies ou « lupin polyphille »</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Lu</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Lur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Luronium
+Luronium natans - Flûteau nageant</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Lu</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Luz</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luzula - fam. Joncacées
 Luzula parviflora
 Luzula spicata
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Ly</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lyc
-Lycianthes
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Lyc</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Lycianthes
 Lycianthes rantonnetii - Solanum à fleurs bleues
 Lycopersicum - fam. Solanacées (légume)
 Lycopersicum esculentum - Tomate
@@ -1054,9 +2456,43 @@
 Lycopus americanus laurentianus
 Lycopus asper - Lycopus du Nord du Québec.
 Lycopus uniflorus
-Lycopus virginicus - Lycopus de Virginie
-Lys
-Lysichiton - Araceae
+Lycopus virginicus - Lycopus de Virginie</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Ly</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Lys</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Lysichiton - Araceae
 Lysichiton americanus (zone néarctique) - Lysichiton américain ou Lysichite jaune
 Lysichiton camtschatsensis - Lysichite blanc
 Lysimachia - fam. Primulacées (plante rustique)
@@ -1065,9 +2501,43 @@
 Lysimachia hibrida - Lysimaque hybride
 Lysimachia quadrifolia - Lysimaque à quatre feuilles
 Lysimachia terrestris - Lysimaque terrestre
-Lysimachia vulgaris - Lysimaque commune ou grande lysimaque
-Lyt
-Lythrum - (plante de tourbière)
+Lysimachia vulgaris - Lysimaque commune ou grande lysimaque</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(L)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Ly</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Lyt</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lythrum - (plante de tourbière)
 Lythrum borysthenicum ou Peplis erecta - Péplis dressé
 Lythrum salicaria - Salicaire
 Voir aussi Plantes par nom scientifique
